--- a/documentacao/Planilhas/productBacklog.xlsx
+++ b/documentacao/Planilhas/productBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laguinho zl\Documents\BandTec\2º Semestre\Projeto e Inovação\totem-monitoring\documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Desktop\totem-monitoring\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0733CF30-E85C-43B8-BE6D-92858D8CF2BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85FB32-83F2-4BDC-B36F-60867B2474FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="300" windowWidth="19290" windowHeight="10620" xr2:uid="{2DC16319-591C-4804-80D0-FA9E26D3D614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2DC16319-591C-4804-80D0-FA9E26D3D614}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Acesso a internet</t>
   </si>
   <si>
-    <t>Essêncial</t>
-  </si>
-  <si>
-    <t>Armazenar de dados</t>
-  </si>
-  <si>
     <t>Acesso a internet para utilizar o sistema</t>
   </si>
   <si>
@@ -66,13 +60,31 @@
     <t>Monitoramento dos totens</t>
   </si>
   <si>
-    <t>Site Institucional Adapavel</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
     <t>Site totalmente responsivo, podendo ser redimencionado para o uso em computadores, tablets e celulares.</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Armazenamento de dados</t>
+  </si>
+  <si>
+    <t>Site Institucional Adaptavel</t>
+  </si>
+  <si>
+    <t>Diagrama do banco de dados</t>
+  </si>
+  <si>
+    <t>Criação de um Modelo conceitual do banco de dados</t>
+  </si>
+  <si>
+    <t>Máquina virtual em linux</t>
+  </si>
+  <si>
+    <t>Criação de vm no virtual box</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +489,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,24 +522,24 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -535,13 +547,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,30 +561,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
